--- a/docss/trend/spain/E_telangiectasia.xlsx
+++ b/docss/trend/spain/E_telangiectasia.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej10_Telangiectasia_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej10_Telangiectasia" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12810,7 +12810,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12837,13 +12837,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>1.6463627997197222E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C2">
-        <v>9.2440451016960502E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D2">
-        <v>2.1520253970548117E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12851,13 +12851,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>1.5686515923807931E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C3">
-        <v>2.5646707330188628E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D3">
-        <v>7.9224512570285968E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12865,13 +12865,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>1.0879707065174575E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C4">
-        <v>8.2568051619652597E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D4">
-        <v>1.2274111829962141E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12879,13 +12879,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>1.6928932223045069E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C5">
-        <v>2.4259647671460181E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D5">
-        <v>1.3685981451409366E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12893,13 +12893,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>1.2971219209341621E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C6">
-        <v>1.4832835504969425E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D6">
-        <v>1.0441621977192998E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12907,13 +12907,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>1.6159532937707718E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C7">
-        <v>1.8520993292158477E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D7">
-        <v>1.5447278963295126E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12921,13 +12921,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>1.933836195695662E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C8">
-        <v>1.4904153632970204E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D8">
-        <v>2.211655128501543E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12935,13 +12935,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>1.413416459693567E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C9">
-        <v>1.3261794460893015E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D9">
-        <v>1.5138591104725038E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12949,13 +12949,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>1.2321181728746904E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C10">
-        <v>1.1047276027506332E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D10">
-        <v>1.5007476310717012E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12963,13 +12963,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>1.3546348592682188E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C11">
-        <v>2.0292348552665773E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D11">
-        <v>8.2767274997866125E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12977,13 +12977,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>2.3514562619061742E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="C12">
-        <v>2.8744678186407437E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D12">
-        <v>1.8452327638053202E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12991,13 +12991,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>1.702350778733339E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C13">
-        <v>2.2732612405819135E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D13">
-        <v>1.1884007639211117E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13005,13 +13005,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>1.418521403035279E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C14">
-        <v>1.7579090266383088E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D14">
-        <v>1.3232972266171312E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13019,13 +13019,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>1.223843388997216E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C15">
-        <v>1.3407776444054782E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D15">
-        <v>1.027518621303219E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13033,13 +13033,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>1.2256939206430789E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C16">
-        <v>1.9939357334989746E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D16">
-        <v>6.5789249146693757E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
